--- a/medicine/Psychotrope/Touraille/Touraille.xlsx
+++ b/medicine/Psychotrope/Touraille/Touraille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une touraille est un four servant à sécher des denrées ou des matériaux, comme le malt ou le houblon. Le terme anglais kiln 
 est parfois utilisé dans le domaine du whisky. Il en existe diverses variétés selon le type de combustion, de matériaux ou de fabrication.
